--- a/Final/Journal de travail - Winston Meisen.xlsx
+++ b/Final/Journal de travail - Winston Meisen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Tâche effectuées</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>iSCSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 11.12.2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 14.12.2018 </t>
+  </si>
+  <si>
+    <t>Parte 1</t>
   </si>
 </sst>
 </file>
@@ -268,6 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,10 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +597,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:G57"/>
+  <dimension ref="B3:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,28 +610,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -635,18 +644,18 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -779,16 +788,16 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
@@ -1162,30 +1171,112 @@
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
     </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F56:G57"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
+  <mergeCells count="86">
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="B5:G5"/>
@@ -1202,25 +1293,21 @@
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
@@ -1229,19 +1316,13 @@
     <mergeCell ref="D38:E39"/>
     <mergeCell ref="F38:G39"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="F56:G57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
